--- a/data/trans_orig/P16A11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94DE5422-2BFF-4573-86B4-6610B12324FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F18102E-289E-4B41-838D-72D51B0E211A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7BADA27D-BF1A-4F41-B847-25C8DAEB2719}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{28E9B35B-BA5D-4B20-BF62-94C8897AF135}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="417">
   <si>
     <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>18,33%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
   </si>
   <si>
     <t>19,79%</t>
   </si>
   <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>81,67%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
   </si>
   <si>
     <t>78,71%</t>
   </si>
   <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
   </si>
   <si>
     <t>80,21%</t>
   </si>
   <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1186 +140,1156 @@
     <t>13,43%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
   </si>
   <si>
     <t>15,72%</t>
   </si>
   <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
   </si>
   <si>
     <t>87,07%</t>
   </si>
   <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
     <t>11,39%</t>
   </si>
   <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
   </si>
   <si>
     <t>88,61%</t>
   </si>
   <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>84,3%</t>
   </si>
   <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
   </si>
   <si>
     <t>86,35%</t>
   </si>
   <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
   </si>
   <si>
     <t>12,63%</t>
   </si>
   <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
   </si>
   <si>
     <t>16,67%</t>
   </si>
   <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
     <t>15,53%</t>
   </si>
   <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
   </si>
   <si>
     <t>84,47%</t>
   </si>
   <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
   </si>
   <si>
     <t>19,27%</t>
   </si>
   <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
   </si>
   <si>
     <t>80,73%</t>
   </si>
   <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
   </si>
   <si>
     <t>80,27%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14681353-6A41-471D-8EE9-37EDD5304B44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787BC976-86C7-4A6C-9D4C-BD4BC3A85C56}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2350,13 +2320,13 @@
         <v>201399</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2341,13 @@
         <v>592324</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>581</v>
@@ -2386,13 +2356,13 @@
         <v>568627</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1139</v>
@@ -2401,13 +2371,13 @@
         <v>1160951</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,7 +2433,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2475,13 +2445,13 @@
         <v>107289</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>157</v>
@@ -2490,13 +2460,13 @@
         <v>163060</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>277</v>
@@ -2505,13 +2475,13 @@
         <v>270348</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2496,13 @@
         <v>834933</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>840</v>
@@ -2541,13 +2511,13 @@
         <v>875552</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>1714</v>
@@ -2556,13 +2526,13 @@
         <v>1710486</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2600,13 @@
         <v>413562</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>548</v>
@@ -2645,13 +2615,13 @@
         <v>563384</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>968</v>
@@ -2660,13 +2630,13 @@
         <v>976946</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,16 +2648,16 @@
         <v>2793</v>
       </c>
       <c r="D20" s="7">
-        <v>2861963</v>
+        <v>2861964</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>2749</v>
@@ -2696,28 +2666,28 @@
         <v>2815814</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>5542</v>
       </c>
       <c r="N20" s="7">
-        <v>5677776</v>
+        <v>5677777</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,7 +2699,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2759,7 +2729,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2773,7 +2743,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2794,7 +2764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123D503E-131F-48B3-A31E-CB54DAA748FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43219527-C3EB-45DA-BE52-4CD78398389E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2811,7 +2781,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2918,13 +2888,13 @@
         <v>14467</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -2933,13 +2903,13 @@
         <v>19642</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -2948,13 +2918,13 @@
         <v>34109</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2939,13 @@
         <v>101298</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>81</v>
@@ -2984,13 +2954,13 @@
         <v>92263</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>187</v>
@@ -2999,13 +2969,13 @@
         <v>193561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3043,13 @@
         <v>118596</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>138</v>
@@ -3088,13 +3058,13 @@
         <v>148106</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>246</v>
@@ -3103,13 +3073,13 @@
         <v>266702</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3094,13 @@
         <v>467218</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>412</v>
@@ -3139,13 +3109,13 @@
         <v>435320</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>854</v>
@@ -3154,13 +3124,13 @@
         <v>902538</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3198,13 @@
         <v>150926</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>176</v>
@@ -3243,13 +3213,13 @@
         <v>192013</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>313</v>
@@ -3258,13 +3228,13 @@
         <v>342938</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3249,13 @@
         <v>867021</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>759</v>
@@ -3294,13 +3264,13 @@
         <v>834637</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>1558</v>
@@ -3309,13 +3279,13 @@
         <v>1701659</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3353,13 @@
         <v>111802</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>126</v>
@@ -3398,13 +3368,13 @@
         <v>136985</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>225</v>
@@ -3413,13 +3383,13 @@
         <v>248787</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3404,13 @@
         <v>644736</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>578</v>
@@ -3449,13 +3419,13 @@
         <v>639298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c r="M14" s="7">
         <v>1167</v>
@@ -3464,13 +3434,13 @@
         <v>1284034</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,7 +3496,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3538,13 +3508,13 @@
         <v>173563</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H16" s="7">
         <v>230</v>
@@ -3553,13 +3523,13 @@
         <v>244795</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>388</v>
@@ -3568,13 +3538,13 @@
         <v>418358</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3559,13 @@
         <v>772367</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>770</v>
@@ -3604,13 +3574,13 @@
         <v>803968</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>1520</v>
@@ -3619,13 +3589,13 @@
         <v>1576336</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3663,13 @@
         <v>569354</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>688</v>
@@ -3708,28 +3678,28 @@
         <v>741541</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>1206</v>
       </c>
       <c r="N19" s="7">
-        <v>1310895</v>
+        <v>1310894</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3714,13 @@
         <v>2852640</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>2600</v>
@@ -3759,13 +3729,13 @@
         <v>2805487</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>5286</v>
@@ -3774,13 +3744,13 @@
         <v>5658127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,7 +3792,7 @@
         <v>6492</v>
       </c>
       <c r="N21" s="7">
-        <v>6969022</v>
+        <v>6969021</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3836,7 +3806,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +3827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898E409C-A511-46E1-82DD-76FA66079C37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1299831E-9387-4C03-9744-EE156126214B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3874,7 +3844,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,13 +3951,13 @@
         <v>22744</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -3996,13 +3966,13 @@
         <v>16150</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -4011,13 +3981,13 @@
         <v>38894</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4002,13 @@
         <v>93802</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>60</v>
       </c>
       <c r="H5" s="7">
         <v>99</v>
@@ -4047,13 +4017,13 @@
         <v>97210</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="M5" s="7">
         <v>188</v>
@@ -4062,13 +4032,13 @@
         <v>191012</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4106,13 @@
         <v>80226</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="H7" s="7">
         <v>108</v>
@@ -4151,13 +4121,13 @@
         <v>115762</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>190</v>
@@ -4166,13 +4136,13 @@
         <v>195988</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4157,13 @@
         <v>478028</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H8" s="7">
         <v>443</v>
@@ -4202,13 +4172,13 @@
         <v>443717</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>900</v>
@@ -4217,13 +4187,13 @@
         <v>921745</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4261,13 @@
         <v>147125</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
         <v>143</v>
@@ -4306,13 +4276,13 @@
         <v>173710</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>286</v>
@@ -4321,13 +4291,13 @@
         <v>320835</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>111</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>105</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4312,13 @@
         <v>875306</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="H11" s="7">
         <v>834</v>
@@ -4357,13 +4327,13 @@
         <v>869203</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="M11" s="7">
         <v>1642</v>
@@ -4372,13 +4342,13 @@
         <v>1744509</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>267</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4416,13 @@
         <v>110306</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>123</v>
@@ -4461,13 +4431,13 @@
         <v>145227</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>227</v>
@@ -4476,13 +4446,13 @@
         <v>255533</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4467,13 @@
         <v>649246</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H14" s="7">
         <v>613</v>
@@ -4512,13 +4482,13 @@
         <v>639784</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>1205</v>
@@ -4527,13 +4497,13 @@
         <v>1289030</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,7 +4559,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4601,13 +4571,13 @@
         <v>143187</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="H16" s="7">
         <v>147</v>
@@ -4616,13 +4586,13 @@
         <v>178674</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>295</v>
@@ -4631,13 +4601,13 @@
         <v>321861</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4622,13 @@
         <v>794380</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>812</v>
@@ -4667,13 +4637,13 @@
         <v>865105</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>1596</v>
@@ -4682,13 +4652,13 @@
         <v>1659485</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4726,13 @@
         <v>503588</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H19" s="7">
         <v>537</v>
@@ -4771,13 +4741,13 @@
         <v>629524</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>1038</v>
@@ -4786,13 +4756,13 @@
         <v>1133112</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>307</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4777,13 @@
         <v>2890762</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="H20" s="7">
         <v>2801</v>
@@ -4822,13 +4792,13 @@
         <v>2915018</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>5531</v>
@@ -4837,13 +4807,13 @@
         <v>5805780</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,7 +4869,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4920,7 +4890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EC22BD-C751-44C3-BA67-DE6C48E7B98A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B529439-977C-436C-B1E7-18BB255CFE53}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4937,7 +4907,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5044,13 +5014,13 @@
         <v>19764</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="H4" s="7">
         <v>96</v>
@@ -5059,13 +5029,13 @@
         <v>40587</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>129</v>
@@ -5074,13 +5044,13 @@
         <v>60351</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5065,13 @@
         <v>82218</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="H5" s="7">
         <v>147</v>
@@ -5110,13 +5080,13 @@
         <v>90146</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="M5" s="7">
         <v>232</v>
@@ -5125,13 +5095,13 @@
         <v>172364</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5169,13 @@
         <v>119084</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>352</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>278</v>
@@ -5214,13 +5184,13 @@
         <v>128663</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>450</v>
@@ -5229,13 +5199,13 @@
         <v>247746</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5220,13 @@
         <v>430739</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>362</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>718</v>
@@ -5265,13 +5235,13 @@
         <v>464299</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>1158</v>
@@ -5280,13 +5250,13 @@
         <v>895039</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5324,13 @@
         <v>171439</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>95</v>
+        <v>354</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>355</v>
       </c>
       <c r="H10" s="7">
         <v>359</v>
@@ -5369,13 +5339,13 @@
         <v>198408</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>583</v>
@@ -5387,10 +5357,10 @@
         <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5375,13 @@
         <v>867809</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>104</v>
+        <v>363</v>
       </c>
       <c r="H11" s="7">
         <v>1157</v>
@@ -5420,13 +5390,13 @@
         <v>861066</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>1897</v>
@@ -5438,10 +5408,10 @@
         <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>367</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,13 +5479,13 @@
         <v>145586</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H13" s="7">
         <v>217</v>
@@ -5524,13 +5494,13 @@
         <v>237998</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>380</v>
+        <v>223</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="M13" s="7">
         <v>386</v>
@@ -5539,13 +5509,13 @@
         <v>383584</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5530,13 @@
         <v>581172</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>829</v>
@@ -5575,13 +5545,13 @@
         <v>635748</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="M14" s="7">
         <v>1334</v>
@@ -5590,13 +5560,13 @@
         <v>1216920</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,7 +5622,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5664,13 +5634,13 @@
         <v>196177</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>438</v>
@@ -5679,13 +5649,13 @@
         <v>273942</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>387</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>699</v>
@@ -5694,13 +5664,13 @@
         <v>470118</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5685,13 @@
         <v>769226</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>1121</v>
@@ -5730,13 +5700,13 @@
         <v>872361</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>1866</v>
@@ -5745,13 +5715,13 @@
         <v>1641588</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>410</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,13 +5789,13 @@
         <v>652050</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>399</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="H19" s="7">
         <v>1388</v>
@@ -5834,13 +5804,13 @@
         <v>879597</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="M19" s="7">
         <v>2247</v>
@@ -5849,13 +5819,13 @@
         <v>1531647</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,16 +5837,16 @@
         <v>2515</v>
       </c>
       <c r="D20" s="7">
-        <v>2731164</v>
+        <v>2731165</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>212</v>
+        <v>408</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="H20" s="7">
         <v>3972</v>
@@ -5885,28 +5855,28 @@
         <v>2923621</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="M20" s="7">
         <v>6487</v>
       </c>
       <c r="N20" s="7">
-        <v>5654785</v>
+        <v>5654786</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,7 +5888,7 @@
         <v>3374</v>
       </c>
       <c r="D21" s="7">
-        <v>3383214</v>
+        <v>3383215</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5948,7 +5918,7 @@
         <v>8734</v>
       </c>
       <c r="N21" s="7">
-        <v>7186432</v>
+        <v>7186433</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5962,7 +5932,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F18102E-289E-4B41-838D-72D51B0E211A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77F0EE13-4C36-42E8-966C-708171180A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{28E9B35B-BA5D-4B20-BF62-94C8897AF135}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A827CF1-A1B2-478A-A6C3-B0AD8A4F4F71}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="423">
   <si>
     <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,220 +77,226 @@
     <t>18,33%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
     <t>14,78%</t>
   </si>
   <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
   </si>
   <si>
     <t>85,22%</t>
   </si>
   <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -299,882 +305,900 @@
     <t>11,39%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>13,36%</t>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
   </si>
   <si>
     <t>82,12%</t>
   </si>
   <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>17,25%</t>
   </si>
   <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
   </si>
   <si>
     <t>18,47%</t>
   </si>
   <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
   </si>
   <si>
     <t>81,53%</t>
   </si>
   <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>19,51%</t>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
   </si>
   <si>
     <t>27,24%</t>
   </si>
   <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
   </si>
   <si>
     <t>72,76%</t>
   </si>
   <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
     <t>43,72%</t>
   </si>
   <si>
@@ -1199,9 +1223,6 @@
     <t>22,73%</t>
   </si>
   <si>
-    <t>23,9%</t>
-  </si>
-  <si>
     <t>21,86%</t>
   </si>
   <si>
@@ -1221,9 +1242,6 @@
   </si>
   <si>
     <t>82,06%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
   </si>
   <si>
     <t>73,53%</t>
@@ -1701,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787BC976-86C7-4A6C-9D4C-BD4BC3A85C56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC652489-0AD0-44B1-92CF-5FFCAD956873}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2290,13 +2308,13 @@
         <v>86185</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>115</v>
@@ -2305,13 +2323,13 @@
         <v>115214</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>198</v>
@@ -2320,13 +2338,13 @@
         <v>201399</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,7 +2359,7 @@
         <v>592324</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>78</v>
@@ -2371,13 +2389,13 @@
         <v>1160951</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,7 +2451,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2445,13 +2463,13 @@
         <v>107289</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>157</v>
@@ -2460,13 +2478,13 @@
         <v>163060</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>277</v>
@@ -2475,13 +2493,13 @@
         <v>270348</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,13 +2514,13 @@
         <v>834933</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>840</v>
@@ -2511,13 +2529,13 @@
         <v>875552</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1714</v>
@@ -2526,13 +2544,13 @@
         <v>1710486</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2618,13 @@
         <v>413562</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>548</v>
@@ -2615,13 +2633,13 @@
         <v>563384</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>968</v>
@@ -2630,13 +2648,13 @@
         <v>976946</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,16 +2666,16 @@
         <v>2793</v>
       </c>
       <c r="D20" s="7">
-        <v>2861964</v>
+        <v>2861963</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>2749</v>
@@ -2666,13 +2684,13 @@
         <v>2815814</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>5542</v>
@@ -2681,13 +2699,13 @@
         <v>5677777</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,7 +2717,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2743,7 +2761,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2764,7 +2782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43219527-C3EB-45DA-BE52-4CD78398389E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A75DA15-4BA7-4A53-9784-200DA409DD7B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2781,7 +2799,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2888,13 +2906,13 @@
         <v>14467</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -2903,13 +2921,13 @@
         <v>19642</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -2918,13 +2936,13 @@
         <v>34109</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,13 +2957,13 @@
         <v>101298</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>81</v>
@@ -2954,13 +2972,13 @@
         <v>92263</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>187</v>
@@ -2969,13 +2987,13 @@
         <v>193561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3061,13 @@
         <v>118596</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>138</v>
@@ -3058,13 +3076,13 @@
         <v>148106</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>246</v>
@@ -3073,13 +3091,13 @@
         <v>266702</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3112,13 @@
         <v>467218</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>412</v>
@@ -3109,13 +3127,13 @@
         <v>435320</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>854</v>
@@ -3124,13 +3142,13 @@
         <v>902538</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3216,13 @@
         <v>150926</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>176</v>
@@ -3213,13 +3231,13 @@
         <v>192013</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>313</v>
@@ -3228,10 +3246,10 @@
         <v>342938</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>167</v>
@@ -3249,13 +3267,13 @@
         <v>867021</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>759</v>
@@ -3264,13 +3282,13 @@
         <v>834637</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>1558</v>
@@ -3279,13 +3297,13 @@
         <v>1701659</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,13 +3371,13 @@
         <v>111802</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>126</v>
@@ -3368,13 +3386,13 @@
         <v>136985</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>225</v>
@@ -3383,13 +3401,13 @@
         <v>248787</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3422,13 @@
         <v>644736</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>578</v>
@@ -3419,13 +3437,13 @@
         <v>639298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>1167</v>
@@ -3434,13 +3452,13 @@
         <v>1284034</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,7 +3514,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3508,13 +3526,13 @@
         <v>173563</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H16" s="7">
         <v>230</v>
@@ -3523,13 +3541,13 @@
         <v>244795</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>388</v>
@@ -3538,13 +3556,13 @@
         <v>418358</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3577,13 @@
         <v>772367</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="H17" s="7">
         <v>770</v>
@@ -3574,13 +3592,13 @@
         <v>803968</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>1520</v>
@@ -3589,13 +3607,13 @@
         <v>1576336</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3681,13 @@
         <v>569354</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>688</v>
@@ -3678,13 +3696,13 @@
         <v>741541</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>1206</v>
@@ -3693,10 +3711,10 @@
         <v>1310894</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>213</v>
@@ -3735,7 +3753,7 @@
         <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>5286</v>
@@ -3744,13 +3762,13 @@
         <v>5658127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,7 +3824,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3827,7 +3845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1299831E-9387-4C03-9744-EE156126214B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E9908F-D246-45FC-A4EA-7FBE0F043E00}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3844,7 +3862,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3951,13 +3969,13 @@
         <v>22744</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -3966,13 +3984,13 @@
         <v>16150</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -3981,13 +3999,13 @@
         <v>38894</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +4020,13 @@
         <v>93802</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>99</v>
@@ -4017,13 +4035,13 @@
         <v>97210</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>188</v>
@@ -4032,13 +4050,13 @@
         <v>191012</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4124,13 @@
         <v>80226</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>108</v>
@@ -4121,13 +4139,13 @@
         <v>115762</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>190</v>
@@ -4136,13 +4154,13 @@
         <v>195988</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4175,13 @@
         <v>478028</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>443</v>
@@ -4172,13 +4190,13 @@
         <v>443717</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>900</v>
@@ -4187,13 +4205,13 @@
         <v>921745</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,13 +4279,13 @@
         <v>147125</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>143</v>
@@ -4276,13 +4294,13 @@
         <v>173710</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
         <v>286</v>
@@ -4291,13 +4309,13 @@
         <v>320835</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>105</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4330,13 @@
         <v>875306</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H11" s="7">
         <v>834</v>
@@ -4327,13 +4345,13 @@
         <v>869203</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M11" s="7">
         <v>1642</v>
@@ -4342,13 +4360,13 @@
         <v>1744509</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>270</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>113</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4434,13 @@
         <v>110306</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>123</v>
@@ -4431,13 +4449,13 @@
         <v>145227</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
         <v>227</v>
@@ -4446,13 +4464,13 @@
         <v>255533</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4485,13 @@
         <v>649246</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H14" s="7">
         <v>613</v>
@@ -4482,13 +4500,13 @@
         <v>639784</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
         <v>1205</v>
@@ -4497,13 +4515,13 @@
         <v>1289030</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,7 +4577,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4571,13 +4589,13 @@
         <v>143187</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H16" s="7">
         <v>147</v>
@@ -4586,13 +4604,13 @@
         <v>178674</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>294</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>295</v>
       </c>
       <c r="M16" s="7">
         <v>295</v>
@@ -4601,13 +4619,13 @@
         <v>321861</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,13 +4640,13 @@
         <v>794380</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>812</v>
@@ -4637,13 +4655,13 @@
         <v>865105</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
         <v>1596</v>
@@ -4652,13 +4670,13 @@
         <v>1659485</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4744,13 @@
         <v>503588</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>537</v>
@@ -4741,13 +4759,13 @@
         <v>629524</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>304</v>
+        <v>164</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="M19" s="7">
         <v>1038</v>
@@ -4756,13 +4774,13 @@
         <v>1133112</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4795,13 @@
         <v>2890762</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H20" s="7">
         <v>2801</v>
@@ -4792,13 +4810,13 @@
         <v>2915018</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>172</v>
       </c>
       <c r="M20" s="7">
         <v>5531</v>
@@ -4807,13 +4825,13 @@
         <v>5805780</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,7 +4887,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4890,7 +4908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B529439-977C-436C-B1E7-18BB255CFE53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A20DD6-6DFE-4C4E-A691-A7CB593AAD42}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4907,7 +4925,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5014,13 +5032,13 @@
         <v>19764</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H4" s="7">
         <v>96</v>
@@ -5029,13 +5047,13 @@
         <v>40587</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>323</v>
+        <v>130</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>129</v>
@@ -5044,13 +5062,13 @@
         <v>60351</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5083,13 @@
         <v>82218</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>147</v>
@@ -5080,13 +5098,13 @@
         <v>90146</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>333</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>232</v>
@@ -5095,13 +5113,13 @@
         <v>172364</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5187,13 @@
         <v>119084</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>167</v>
+        <v>342</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H7" s="7">
         <v>278</v>
@@ -5184,13 +5202,13 @@
         <v>128663</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M7" s="7">
         <v>450</v>
@@ -5199,13 +5217,13 @@
         <v>247746</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5238,13 @@
         <v>430739</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>352</v>
       </c>
       <c r="H8" s="7">
         <v>718</v>
@@ -5235,13 +5253,13 @@
         <v>464299</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M8" s="7">
         <v>1158</v>
@@ -5250,13 +5268,13 @@
         <v>895039</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,13 +5342,13 @@
         <v>171439</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H10" s="7">
         <v>359</v>
@@ -5339,13 +5357,13 @@
         <v>198408</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="M10" s="7">
         <v>583</v>
@@ -5357,10 +5375,10 @@
         <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5393,13 @@
         <v>867809</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="H11" s="7">
         <v>1157</v>
@@ -5390,13 +5408,13 @@
         <v>861066</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M11" s="7">
         <v>1897</v>
@@ -5408,10 +5426,10 @@
         <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5497,13 @@
         <v>145586</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>217</v>
@@ -5494,13 +5512,13 @@
         <v>237998</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>223</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>386</v>
@@ -5509,13 +5527,13 @@
         <v>383584</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,13 +5548,13 @@
         <v>581172</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>829</v>
@@ -5545,13 +5563,13 @@
         <v>635748</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="M14" s="7">
         <v>1334</v>
@@ -5560,13 +5578,13 @@
         <v>1216920</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,7 +5640,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5634,13 +5652,13 @@
         <v>196177</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="H16" s="7">
         <v>438</v>
@@ -5649,13 +5667,13 @@
         <v>273942</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>145</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>699</v>
@@ -5664,13 +5682,13 @@
         <v>470118</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5703,13 @@
         <v>769226</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
         <v>1121</v>
@@ -5700,13 +5718,13 @@
         <v>872361</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>1866</v>
@@ -5715,13 +5733,13 @@
         <v>1641588</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,13 +5807,13 @@
         <v>652050</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="H19" s="7">
         <v>1388</v>
@@ -5804,13 +5822,13 @@
         <v>879597</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M19" s="7">
         <v>2247</v>
@@ -5819,13 +5837,13 @@
         <v>1531647</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5858,13 @@
         <v>2731165</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H20" s="7">
         <v>3972</v>
@@ -5855,13 +5873,13 @@
         <v>2923621</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M20" s="7">
         <v>6487</v>
@@ -5870,13 +5888,13 @@
         <v>5654786</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5932,7 +5950,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77F0EE13-4C36-42E8-966C-708171180A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48E87221-CFD1-4A3A-9E8D-D4E9B1429EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A827CF1-A1B2-478A-A6C3-B0AD8A4F4F71}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{052DA47C-86A3-4746-A179-F0EC78188F1A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
   <si>
     <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,1231 +71,1243 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>18,33%</t>
   </si>
   <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
   </si>
   <si>
     <t>19,79%</t>
   </si>
   <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
     <t>15,23%</t>
   </si>
   <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
   </si>
   <si>
     <t>84,77%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>12,84%</t>
   </si>
   <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
   </si>
   <si>
     <t>87,16%</t>
   </si>
   <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
   </si>
   <si>
     <t>11,44%</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
   </si>
   <si>
     <t>17,83%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
   </si>
   <si>
     <t>82,17%</t>
   </si>
   <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
     <t>76,87%</t>
   </si>
   <si>
-    <t>68,01%</t>
+    <t>69,5%</t>
   </si>
   <si>
     <t>79,53%</t>
@@ -1304,10 +1316,10 @@
     <t>78,69%</t>
   </si>
   <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC652489-0AD0-44B1-92CF-5FFCAD956873}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76B72E-A557-4129-84CE-0671296F5D38}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2308,13 +2320,13 @@
         <v>86185</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>115</v>
@@ -2323,13 +2335,13 @@
         <v>115214</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>198</v>
@@ -2338,13 +2350,13 @@
         <v>201399</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2371,13 @@
         <v>592324</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>581</v>
@@ -2374,13 +2386,13 @@
         <v>568627</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1139</v>
@@ -2389,13 +2401,13 @@
         <v>1160951</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,7 +2463,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2463,13 +2475,13 @@
         <v>107289</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>157</v>
@@ -2478,13 +2490,13 @@
         <v>163060</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>277</v>
@@ -2493,13 +2505,13 @@
         <v>270348</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2526,13 @@
         <v>834933</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>840</v>
@@ -2529,13 +2541,13 @@
         <v>875552</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1714</v>
@@ -2544,13 +2556,13 @@
         <v>1710486</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,13 +2630,13 @@
         <v>413562</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>548</v>
@@ -2633,13 +2645,13 @@
         <v>563384</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>968</v>
@@ -2648,13 +2660,13 @@
         <v>976946</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2681,13 @@
         <v>2861963</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2749</v>
@@ -2684,28 +2696,28 @@
         <v>2815814</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>5542</v>
       </c>
       <c r="N20" s="7">
-        <v>5677777</v>
+        <v>5677776</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,7 +2759,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2761,7 +2773,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2782,7 +2794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A75DA15-4BA7-4A53-9784-200DA409DD7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B11E13-746A-43E9-A5EE-BA17AD911E56}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2799,7 +2811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2906,13 +2918,13 @@
         <v>14467</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -2921,13 +2933,13 @@
         <v>19642</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -2936,13 +2948,13 @@
         <v>34109</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2969,13 @@
         <v>101298</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>81</v>
@@ -2972,13 +2984,13 @@
         <v>92263</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>187</v>
@@ -2987,13 +2999,13 @@
         <v>193561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3073,13 @@
         <v>118596</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>138</v>
@@ -3076,13 +3088,13 @@
         <v>148106</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>246</v>
@@ -3091,13 +3103,13 @@
         <v>266702</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3124,13 @@
         <v>467218</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>412</v>
@@ -3127,13 +3139,13 @@
         <v>435320</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>854</v>
@@ -3142,13 +3154,13 @@
         <v>902538</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,13 +3228,13 @@
         <v>150926</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>176</v>
@@ -3231,13 +3243,13 @@
         <v>192013</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>313</v>
@@ -3246,13 +3258,13 @@
         <v>342938</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3279,13 @@
         <v>867021</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>759</v>
@@ -3282,13 +3294,13 @@
         <v>834637</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>1558</v>
@@ -3297,13 +3309,13 @@
         <v>1701659</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3383,13 @@
         <v>111802</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H13" s="7">
         <v>126</v>
@@ -3386,13 +3398,13 @@
         <v>136985</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>225</v>
@@ -3401,13 +3413,13 @@
         <v>248787</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3434,13 @@
         <v>644736</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>578</v>
@@ -3437,13 +3449,13 @@
         <v>639298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>1167</v>
@@ -3452,13 +3464,13 @@
         <v>1284034</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,7 +3526,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3526,13 +3538,13 @@
         <v>173563</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="H16" s="7">
         <v>230</v>
@@ -3541,13 +3553,13 @@
         <v>244795</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="M16" s="7">
         <v>388</v>
@@ -3556,13 +3568,13 @@
         <v>418358</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,10 +3589,10 @@
         <v>772367</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>44</v>
@@ -3592,13 +3604,13 @@
         <v>803968</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>1520</v>
@@ -3607,13 +3619,13 @@
         <v>1576336</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3693,13 @@
         <v>569354</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>688</v>
@@ -3696,28 +3708,28 @@
         <v>741541</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>1206</v>
       </c>
       <c r="N19" s="7">
-        <v>1310894</v>
+        <v>1310895</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,13 +3744,13 @@
         <v>2852640</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>2600</v>
@@ -3747,13 +3759,13 @@
         <v>2805487</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>5286</v>
@@ -3762,13 +3774,13 @@
         <v>5658127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,7 +3822,7 @@
         <v>6492</v>
       </c>
       <c r="N21" s="7">
-        <v>6969021</v>
+        <v>6969022</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3824,7 +3836,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3845,7 +3857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E9908F-D246-45FC-A4EA-7FBE0F043E00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F566114B-6CE2-4482-A2DD-97182E7B7985}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3862,7 +3874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3969,13 +3981,13 @@
         <v>22744</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -3984,13 +3996,13 @@
         <v>16150</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -3999,13 +4011,13 @@
         <v>38894</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>36</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4032,13 @@
         <v>93802</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>99</v>
@@ -4035,13 +4047,13 @@
         <v>97210</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>188</v>
@@ -4050,13 +4062,13 @@
         <v>191012</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>46</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4136,13 @@
         <v>80226</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>108</v>
@@ -4139,13 +4151,13 @@
         <v>115762</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>190</v>
@@ -4154,13 +4166,13 @@
         <v>195988</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4187,13 @@
         <v>478028</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>443</v>
@@ -4190,13 +4202,13 @@
         <v>443717</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>900</v>
@@ -4205,13 +4217,13 @@
         <v>921745</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,13 +4291,13 @@
         <v>147125</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>143</v>
@@ -4294,13 +4306,13 @@
         <v>173710</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>286</v>
@@ -4309,13 +4321,13 @@
         <v>320835</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>111</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,13 +4342,13 @@
         <v>875306</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>834</v>
@@ -4345,13 +4357,13 @@
         <v>869203</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>1642</v>
@@ -4360,13 +4372,13 @@
         <v>1744509</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>121</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4446,13 @@
         <v>110306</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>123</v>
@@ -4449,13 +4461,13 @@
         <v>145227</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>227</v>
@@ -4464,13 +4476,13 @@
         <v>255533</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4497,13 @@
         <v>649246</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>613</v>
@@ -4500,13 +4512,13 @@
         <v>639784</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>1205</v>
@@ -4515,13 +4527,13 @@
         <v>1289030</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,7 +4589,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4589,13 +4601,13 @@
         <v>143187</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="H16" s="7">
         <v>147</v>
@@ -4604,13 +4616,13 @@
         <v>178674</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>295</v>
+        <v>17</v>
       </c>
       <c r="M16" s="7">
         <v>295</v>
@@ -4619,13 +4631,13 @@
         <v>321861</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4652,13 @@
         <v>794380</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>812</v>
@@ -4655,13 +4667,13 @@
         <v>865105</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>27</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>1596</v>
@@ -4670,13 +4682,13 @@
         <v>1659485</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4756,13 @@
         <v>503588</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H19" s="7">
         <v>537</v>
@@ -4759,13 +4771,13 @@
         <v>629524</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>164</v>
+        <v>320</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="M19" s="7">
         <v>1038</v>
@@ -4774,13 +4786,13 @@
         <v>1133112</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>314</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4807,13 @@
         <v>2890762</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H20" s="7">
         <v>2801</v>
@@ -4810,13 +4822,13 @@
         <v>2915018</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>172</v>
+        <v>329</v>
       </c>
       <c r="M20" s="7">
         <v>5531</v>
@@ -4825,13 +4837,13 @@
         <v>5805780</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,7 +4899,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4908,7 +4920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A20DD6-6DFE-4C4E-A691-A7CB593AAD42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE973FB-EAC7-4346-A425-44109FA2FBE2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4925,7 +4937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5032,13 +5044,13 @@
         <v>19764</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>96</v>
@@ -5047,13 +5059,13 @@
         <v>40587</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>129</v>
@@ -5062,13 +5074,13 @@
         <v>60351</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5095,13 @@
         <v>82218</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>147</v>
@@ -5098,13 +5110,13 @@
         <v>90146</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>232</v>
@@ -5113,13 +5125,13 @@
         <v>172364</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5199,13 @@
         <v>119084</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>278</v>
@@ -5202,13 +5214,13 @@
         <v>128663</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>450</v>
@@ -5217,13 +5229,13 @@
         <v>247746</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5250,13 @@
         <v>430739</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>718</v>
@@ -5253,13 +5265,13 @@
         <v>464299</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>1158</v>
@@ -5268,13 +5280,13 @@
         <v>895039</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,13 +5354,13 @@
         <v>171439</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>360</v>
+        <v>95</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>361</v>
+        <v>37</v>
       </c>
       <c r="H10" s="7">
         <v>359</v>
@@ -5357,13 +5369,13 @@
         <v>198408</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>364</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>583</v>
@@ -5375,10 +5387,10 @@
         <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5405,13 @@
         <v>867809</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>368</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>104</v>
       </c>
       <c r="H11" s="7">
         <v>1157</v>
@@ -5408,13 +5420,13 @@
         <v>861066</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M11" s="7">
         <v>1897</v>
@@ -5426,10 +5438,10 @@
         <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>373</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,13 +5509,13 @@
         <v>145586</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>293</v>
+        <v>378</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>217</v>
@@ -5512,13 +5524,13 @@
         <v>237998</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>386</v>
@@ -5527,13 +5539,13 @@
         <v>383584</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,13 +5560,13 @@
         <v>581172</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>302</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>829</v>
@@ -5563,13 +5575,13 @@
         <v>635748</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>1334</v>
@@ -5578,13 +5590,13 @@
         <v>1216920</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,7 +5652,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5652,13 +5664,13 @@
         <v>196177</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H16" s="7">
         <v>438</v>
@@ -5667,13 +5679,13 @@
         <v>273942</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>145</v>
+        <v>398</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M16" s="7">
         <v>699</v>
@@ -5682,13 +5694,13 @@
         <v>470118</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>243</v>
+        <v>401</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5715,13 @@
         <v>769226</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>1121</v>
@@ -5718,13 +5730,13 @@
         <v>872361</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>1866</v>
@@ -5733,13 +5745,13 @@
         <v>1641588</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5819,13 @@
         <v>652050</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>405</v>
+        <v>203</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="H19" s="7">
         <v>1388</v>
@@ -5822,13 +5834,13 @@
         <v>879597</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M19" s="7">
         <v>2247</v>
@@ -5837,13 +5849,13 @@
         <v>1531647</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,16 +5867,16 @@
         <v>2515</v>
       </c>
       <c r="D20" s="7">
-        <v>2731165</v>
+        <v>2731164</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>414</v>
+        <v>212</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="H20" s="7">
         <v>3972</v>
@@ -5873,28 +5885,28 @@
         <v>2923621</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="M20" s="7">
         <v>6487</v>
       </c>
       <c r="N20" s="7">
-        <v>5654786</v>
+        <v>5654785</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,7 +5918,7 @@
         <v>3374</v>
       </c>
       <c r="D21" s="7">
-        <v>3383215</v>
+        <v>3383214</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5936,7 +5948,7 @@
         <v>8734</v>
       </c>
       <c r="N21" s="7">
-        <v>7186433</v>
+        <v>7186432</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5950,7 +5962,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48E87221-CFD1-4A3A-9E8D-D4E9B1429EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94DBDEEB-7E0D-459C-B137-10CAFE168382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{052DA47C-86A3-4746-A179-F0EC78188F1A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C7245413-8FA2-4FEB-969D-180398409C94}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="356">
   <si>
     <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,918 +68,753 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
   </si>
   <si>
     <t>19,79%</t>
   </si>
   <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
   </si>
   <si>
     <t>80,21%</t>
   </si>
   <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
     <t>83,76%</t>
   </si>
   <si>
@@ -1040,286 +875,238 @@
     <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
   </si>
   <si>
     <t>21,3%</t>
   </si>
   <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
   </si>
   <si>
     <t>78,7%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
   </si>
 </sst>
 </file>
@@ -1731,8 +1518,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76B72E-A557-4129-84CE-0671296F5D38}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6942F14E-4277-4BF5-90F4-2ACEC065E7A1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1849,10 +1636,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D4" s="7">
-        <v>21142</v>
+        <v>98689</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1864,10 +1651,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="I4" s="7">
-        <v>24001</v>
+        <v>114490</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1879,10 +1666,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="N4" s="7">
-        <v>45143</v>
+        <v>213179</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1900,10 +1687,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>85</v>
+        <v>583</v>
       </c>
       <c r="D5" s="7">
-        <v>94216</v>
+        <v>594305</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1915,10 +1702,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>100</v>
+        <v>579</v>
       </c>
       <c r="I5" s="7">
-        <v>88754</v>
+        <v>573861</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1930,10 +1717,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>185</v>
+        <v>1162</v>
       </c>
       <c r="N5" s="7">
-        <v>182970</v>
+        <v>1168166</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1951,10 +1738,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>682</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>692994</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1966,10 +1753,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1981,10 +1768,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381345</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2004,10 +1791,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="D7" s="7">
-        <v>77548</v>
+        <v>121399</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2019,10 +1806,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="I7" s="7">
-        <v>90488</v>
+        <v>170621</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2034,10 +1821,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>168</v>
+        <v>277</v>
       </c>
       <c r="N7" s="7">
-        <v>168036</v>
+        <v>292020</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2055,10 +1842,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>498</v>
+        <v>778</v>
       </c>
       <c r="D8" s="7">
-        <v>500088</v>
+        <v>840401</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2070,10 +1857,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>479</v>
+        <v>749</v>
       </c>
       <c r="I8" s="7">
-        <v>485108</v>
+        <v>797772</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2085,10 +1872,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>977</v>
+        <v>1527</v>
       </c>
       <c r="N8" s="7">
-        <v>985196</v>
+        <v>1638173</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2106,10 +1893,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>577</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>577636</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2121,10 +1908,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2136,10 +1923,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1153232</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2159,10 +1946,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="D10" s="7">
-        <v>121399</v>
+        <v>86185</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2174,10 +1961,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="I10" s="7">
-        <v>170621</v>
+        <v>115214</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2189,10 +1976,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>277</v>
+        <v>198</v>
       </c>
       <c r="N10" s="7">
-        <v>292020</v>
+        <v>201399</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2210,10 +1997,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>778</v>
+        <v>558</v>
       </c>
       <c r="D11" s="7">
-        <v>840401</v>
+        <v>592324</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2225,10 +2012,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>749</v>
+        <v>581</v>
       </c>
       <c r="I11" s="7">
-        <v>797772</v>
+        <v>568627</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2240,10 +2027,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1527</v>
+        <v>1139</v>
       </c>
       <c r="N11" s="7">
-        <v>1638173</v>
+        <v>1160951</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2261,10 +2048,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2276,10 +2063,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2291,10 +2078,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2314,10 +2101,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="D13" s="7">
-        <v>86185</v>
+        <v>107289</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2329,10 +2116,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="I13" s="7">
-        <v>115214</v>
+        <v>163060</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2344,10 +2131,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="N13" s="7">
-        <v>201399</v>
+        <v>270348</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2365,10 +2152,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>558</v>
+        <v>874</v>
       </c>
       <c r="D14" s="7">
-        <v>592324</v>
+        <v>834933</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2380,10 +2167,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>581</v>
+        <v>840</v>
       </c>
       <c r="I14" s="7">
-        <v>568627</v>
+        <v>875552</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2395,10 +2182,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1139</v>
+        <v>1714</v>
       </c>
       <c r="N14" s="7">
-        <v>1160951</v>
+        <v>1710486</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2416,10 +2203,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2431,10 +2218,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2446,10 +2233,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2463,55 +2250,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>120</v>
+        <v>420</v>
       </c>
       <c r="D16" s="7">
-        <v>107289</v>
+        <v>413562</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>548</v>
+      </c>
+      <c r="I16" s="7">
+        <v>563384</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>157</v>
-      </c>
-      <c r="I16" s="7">
-        <v>163060</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>968</v>
+      </c>
+      <c r="N16" s="7">
+        <v>976946</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>277</v>
-      </c>
-      <c r="N16" s="7">
-        <v>270348</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,49 +2307,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>874</v>
+        <v>2793</v>
       </c>
       <c r="D17" s="7">
-        <v>834933</v>
+        <v>2861963</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2749</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2815813</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>840</v>
-      </c>
-      <c r="I17" s="7">
-        <v>875552</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>5542</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5677776</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1714</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1710486</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,10 +2358,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3275525</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2586,10 +2373,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2601,10 +2388,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6510</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6654722</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2617,171 +2404,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>420</v>
-      </c>
-      <c r="D19" s="7">
-        <v>413562</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>548</v>
-      </c>
-      <c r="I19" s="7">
-        <v>563384</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>968</v>
-      </c>
-      <c r="N19" s="7">
-        <v>976946</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2793</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2861963</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2749</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2815814</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5542</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5677776</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275525</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6510</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6654722</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2794,8 +2425,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B11E13-746A-43E9-A5EE-BA17AD911E56}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7D3B61-45F3-4AF3-B34F-A14EB467BC97}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2811,7 +2442,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2912,49 +2543,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="D4" s="7">
-        <v>14467</v>
+        <v>133063</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="I4" s="7">
-        <v>19642</v>
+        <v>167748</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>34</v>
+        <v>280</v>
       </c>
       <c r="N4" s="7">
-        <v>34109</v>
+        <v>300811</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,49 +2594,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>106</v>
+        <v>548</v>
       </c>
       <c r="D5" s="7">
-        <v>101298</v>
+        <v>568516</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>81</v>
+        <v>493</v>
       </c>
       <c r="I5" s="7">
-        <v>92263</v>
+        <v>527583</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>187</v>
+        <v>1041</v>
       </c>
       <c r="N5" s="7">
-        <v>193561</v>
+        <v>1096099</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,10 +2645,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>672</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>701579</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3029,10 +2660,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>649</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>695331</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3044,10 +2675,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1321</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1396910</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3067,49 +2698,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="D7" s="7">
-        <v>118596</v>
+        <v>150926</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="I7" s="7">
-        <v>148106</v>
+        <v>192013</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>246</v>
+        <v>313</v>
       </c>
       <c r="N7" s="7">
-        <v>266702</v>
+        <v>342938</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,49 +2749,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>442</v>
+        <v>799</v>
       </c>
       <c r="D8" s="7">
-        <v>467218</v>
+        <v>867021</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>412</v>
+        <v>759</v>
       </c>
       <c r="I8" s="7">
-        <v>435320</v>
+        <v>834637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>854</v>
+        <v>1558</v>
       </c>
       <c r="N8" s="7">
-        <v>902538</v>
+        <v>1701659</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,10 +2800,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>550</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>585814</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3184,10 +2815,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>550</v>
+        <v>935</v>
       </c>
       <c r="I9" s="7">
-        <v>583426</v>
+        <v>1026650</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3199,10 +2830,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1100</v>
+        <v>1871</v>
       </c>
       <c r="N9" s="7">
-        <v>1169240</v>
+        <v>2044597</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3222,49 +2853,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="D10" s="7">
-        <v>150926</v>
+        <v>111802</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="H10" s="7">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="I10" s="7">
-        <v>192013</v>
+        <v>136985</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="N10" s="7">
-        <v>342938</v>
+        <v>248787</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,49 +2904,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>799</v>
+        <v>589</v>
       </c>
       <c r="D11" s="7">
-        <v>867021</v>
+        <v>644736</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>759</v>
+        <v>578</v>
       </c>
       <c r="I11" s="7">
-        <v>834637</v>
+        <v>639298</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>1558</v>
+        <v>1167</v>
       </c>
       <c r="N11" s="7">
-        <v>1701659</v>
+        <v>1284034</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,10 +2955,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>756538</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3339,10 +2970,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>935</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1026650</v>
+        <v>776283</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3354,10 +2985,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1871</v>
+        <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>2044597</v>
+        <v>1532821</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3377,49 +3008,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="D13" s="7">
-        <v>111802</v>
+        <v>173563</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="I13" s="7">
-        <v>136985</v>
+        <v>244795</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>225</v>
+        <v>388</v>
       </c>
       <c r="N13" s="7">
-        <v>248787</v>
+        <v>418358</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,49 +3059,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>589</v>
+        <v>750</v>
       </c>
       <c r="D14" s="7">
-        <v>644736</v>
+        <v>772367</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>578</v>
+        <v>770</v>
       </c>
       <c r="I14" s="7">
-        <v>639298</v>
+        <v>803968</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>1167</v>
+        <v>1520</v>
       </c>
       <c r="N14" s="7">
-        <v>1284034</v>
+        <v>1576336</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,10 +3110,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>908</v>
       </c>
       <c r="D15" s="7">
-        <v>756538</v>
+        <v>945930</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3494,10 +3125,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="7">
-        <v>776283</v>
+        <v>1048763</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3509,10 +3140,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1392</v>
+        <v>1908</v>
       </c>
       <c r="N15" s="7">
-        <v>1532821</v>
+        <v>1994694</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3526,55 +3157,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>158</v>
+        <v>518</v>
       </c>
       <c r="D16" s="7">
-        <v>173563</v>
+        <v>569354</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>230</v>
+        <v>688</v>
       </c>
       <c r="I16" s="7">
-        <v>244795</v>
+        <v>741541</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>388</v>
+        <v>1206</v>
       </c>
       <c r="N16" s="7">
-        <v>418358</v>
+        <v>1310894</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,49 +3214,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>750</v>
+        <v>2686</v>
       </c>
       <c r="D17" s="7">
-        <v>772367</v>
+        <v>2852640</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>770</v>
+        <v>2600</v>
       </c>
       <c r="I17" s="7">
-        <v>803968</v>
+        <v>2805487</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>1520</v>
+        <v>5286</v>
       </c>
       <c r="N17" s="7">
-        <v>1576336</v>
+        <v>5658127</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,10 +3265,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>908</v>
+        <v>3204</v>
       </c>
       <c r="D18" s="7">
-        <v>945930</v>
+        <v>3421994</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3649,10 +3280,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1000</v>
+        <v>3288</v>
       </c>
       <c r="I18" s="7">
-        <v>1048763</v>
+        <v>3547028</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3664,10 +3295,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1908</v>
+        <v>6492</v>
       </c>
       <c r="N18" s="7">
-        <v>1994694</v>
+        <v>6969021</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3680,171 +3311,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>518</v>
-      </c>
-      <c r="D19" s="7">
-        <v>569354</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
-        <v>688</v>
-      </c>
-      <c r="I19" s="7">
-        <v>741541</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1206</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1310895</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2686</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2852640</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2600</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2805487</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5286</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5658127</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3204</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3421994</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3288</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3547028</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6492</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6969022</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3857,8 +3332,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F566114B-6CE2-4482-A2DD-97182E7B7985}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75814CC-558E-45FB-B649-8950C40B607E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3874,7 +3349,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3975,49 +3450,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="D4" s="7">
-        <v>22744</v>
+        <v>102970</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>93</v>
       </c>
       <c r="H4" s="7">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I4" s="7">
-        <v>16150</v>
+        <v>131912</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="N4" s="7">
-        <v>38894</v>
+        <v>234882</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,49 +3501,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>89</v>
+        <v>546</v>
       </c>
       <c r="D5" s="7">
-        <v>93802</v>
+        <v>571830</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>101</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
-        <v>99</v>
+        <v>542</v>
       </c>
       <c r="I5" s="7">
-        <v>97210</v>
+        <v>540927</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
-        <v>188</v>
+        <v>1088</v>
       </c>
       <c r="N5" s="7">
-        <v>191012</v>
+        <v>1112757</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,10 +3552,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4092,10 +3567,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4107,10 +3582,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4130,49 +3605,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="D7" s="7">
-        <v>80226</v>
+        <v>147125</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="H7" s="7">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="I7" s="7">
-        <v>115762</v>
+        <v>173710</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="N7" s="7">
-        <v>195988</v>
+        <v>320835</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>92</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,49 +3656,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>457</v>
+        <v>808</v>
       </c>
       <c r="D8" s="7">
-        <v>478028</v>
+        <v>875306</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="H8" s="7">
-        <v>443</v>
+        <v>834</v>
       </c>
       <c r="I8" s="7">
-        <v>443717</v>
+        <v>869203</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="M8" s="7">
-        <v>900</v>
+        <v>1642</v>
       </c>
       <c r="N8" s="7">
-        <v>921745</v>
+        <v>1744509</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>102</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,10 +3707,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4247,10 +3722,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4262,10 +3737,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4285,49 +3760,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="D10" s="7">
-        <v>147125</v>
+        <v>110306</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="H10" s="7">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I10" s="7">
-        <v>173710</v>
+        <v>145227</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="N10" s="7">
-        <v>320835</v>
+        <v>255533</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,49 +3811,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>808</v>
+        <v>592</v>
       </c>
       <c r="D11" s="7">
-        <v>875306</v>
+        <v>649246</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
-        <v>834</v>
+        <v>613</v>
       </c>
       <c r="I11" s="7">
-        <v>869203</v>
+        <v>639784</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
-        <v>1642</v>
+        <v>1205</v>
       </c>
       <c r="N11" s="7">
-        <v>1744509</v>
+        <v>1289030</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,10 +3862,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4402,10 +3877,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4417,10 +3892,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4440,49 +3915,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="D13" s="7">
-        <v>110306</v>
+        <v>143187</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="I13" s="7">
-        <v>145227</v>
+        <v>178674</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
-        <v>227</v>
+        <v>295</v>
       </c>
       <c r="N13" s="7">
-        <v>255533</v>
+        <v>321861</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,49 +3966,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>592</v>
+        <v>784</v>
       </c>
       <c r="D14" s="7">
-        <v>649246</v>
+        <v>794380</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="H14" s="7">
-        <v>613</v>
+        <v>812</v>
       </c>
       <c r="I14" s="7">
-        <v>639784</v>
+        <v>865105</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
-        <v>1205</v>
+        <v>1596</v>
       </c>
       <c r="N14" s="7">
-        <v>1289030</v>
+        <v>1659485</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,10 +4017,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4557,10 +4032,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4572,10 +4047,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4589,55 +4064,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>148</v>
+        <v>501</v>
       </c>
       <c r="D16" s="7">
-        <v>143187</v>
+        <v>503588</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="H16" s="7">
-        <v>147</v>
+        <v>537</v>
       </c>
       <c r="I16" s="7">
-        <v>178674</v>
+        <v>629524</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>113</v>
+        <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>17</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
-        <v>295</v>
+        <v>1038</v>
       </c>
       <c r="N16" s="7">
-        <v>321861</v>
+        <v>1133112</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,49 +4121,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>784</v>
+        <v>2730</v>
       </c>
       <c r="D17" s="7">
-        <v>794380</v>
+        <v>2890762</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="H17" s="7">
-        <v>812</v>
+        <v>2801</v>
       </c>
       <c r="I17" s="7">
-        <v>865105</v>
+        <v>2915018</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>27</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
-        <v>1596</v>
+        <v>5531</v>
       </c>
       <c r="N17" s="7">
-        <v>1659485</v>
+        <v>5805780</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,10 +4172,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4712,10 +4187,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4727,10 +4202,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4743,171 +4218,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>501</v>
-      </c>
-      <c r="D19" s="7">
-        <v>503588</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H19" s="7">
-        <v>537</v>
-      </c>
-      <c r="I19" s="7">
-        <v>629524</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1038</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1133112</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2730</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2890762</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2801</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2915018</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5531</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5805780</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4920,8 +4239,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE973FB-EAC7-4346-A425-44109FA2FBE2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0B353B-517D-4BDB-BE4D-9BB08DFA23AC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4937,7 +4256,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5038,49 +4357,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="D4" s="7">
-        <v>19764</v>
+        <v>132854</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>181</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>111</v>
       </c>
       <c r="H4" s="7">
-        <v>96</v>
+        <v>374</v>
       </c>
       <c r="I4" s="7">
-        <v>40587</v>
+        <v>157596</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="M4" s="7">
-        <v>129</v>
+        <v>579</v>
       </c>
       <c r="N4" s="7">
-        <v>60351</v>
+        <v>290450</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,49 +4408,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>85</v>
+        <v>525</v>
       </c>
       <c r="D5" s="7">
-        <v>82218</v>
+        <v>502587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>120</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
-        <v>147</v>
+        <v>865</v>
       </c>
       <c r="I5" s="7">
-        <v>90146</v>
+        <v>518156</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="M5" s="7">
-        <v>232</v>
+        <v>1390</v>
       </c>
       <c r="N5" s="7">
-        <v>172364</v>
+        <v>1020744</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,10 +4459,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5155,10 +4474,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1239</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675752</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5170,10 +4489,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1969</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1311194</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5193,49 +4512,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="D7" s="7">
-        <v>119084</v>
+        <v>159020</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>351</v>
+        <v>290</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>352</v>
+        <v>291</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>353</v>
+        <v>292</v>
       </c>
       <c r="H7" s="7">
-        <v>278</v>
+        <v>359</v>
       </c>
       <c r="I7" s="7">
-        <v>128663</v>
+        <v>179287</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>355</v>
+        <v>294</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>356</v>
+        <v>295</v>
       </c>
       <c r="M7" s="7">
-        <v>450</v>
+        <v>583</v>
       </c>
       <c r="N7" s="7">
-        <v>247746</v>
+        <v>338308</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>357</v>
+        <v>296</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>358</v>
+        <v>297</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>359</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,49 +4563,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>440</v>
+        <v>740</v>
       </c>
       <c r="D8" s="7">
-        <v>430739</v>
+        <v>1033844</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>360</v>
+        <v>299</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>361</v>
+        <v>300</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>362</v>
+        <v>301</v>
       </c>
       <c r="H8" s="7">
-        <v>718</v>
+        <v>1157</v>
       </c>
       <c r="I8" s="7">
-        <v>464299</v>
+        <v>778819</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>363</v>
+        <v>302</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>364</v>
+        <v>303</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>365</v>
+        <v>304</v>
       </c>
       <c r="M8" s="7">
-        <v>1158</v>
+        <v>1897</v>
       </c>
       <c r="N8" s="7">
-        <v>895039</v>
+        <v>1812663</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>366</v>
+        <v>305</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>367</v>
+        <v>306</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>368</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,10 +4614,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5310,10 +4629,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5325,10 +4644,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1608</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142785</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5348,49 +4667,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="D10" s="7">
-        <v>171439</v>
+        <v>136621</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>308</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>95</v>
+        <v>309</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>310</v>
       </c>
       <c r="H10" s="7">
-        <v>359</v>
+        <v>217</v>
       </c>
       <c r="I10" s="7">
-        <v>198408</v>
+        <v>321718</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>312</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
-        <v>583</v>
+        <v>386</v>
       </c>
       <c r="N10" s="7">
-        <v>369847</v>
+        <v>458340</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,49 +4718,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>740</v>
+        <v>505</v>
       </c>
       <c r="D11" s="7">
-        <v>867809</v>
+        <v>566179</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>317</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>104</v>
+        <v>319</v>
       </c>
       <c r="H11" s="7">
-        <v>1157</v>
+        <v>829</v>
       </c>
       <c r="I11" s="7">
-        <v>861066</v>
+        <v>611082</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
-        <v>1897</v>
+        <v>1334</v>
       </c>
       <c r="N11" s="7">
-        <v>1728875</v>
+        <v>1177260</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,10 +4769,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>674</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>702800</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5465,10 +4784,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>932800</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5480,10 +4799,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1720</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1635600</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5503,49 +4822,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="D13" s="7">
-        <v>145586</v>
+        <v>184843</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>378</v>
+        <v>128</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="H13" s="7">
-        <v>217</v>
+        <v>438</v>
       </c>
       <c r="I13" s="7">
-        <v>237998</v>
+        <v>244039</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>381</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="M13" s="7">
-        <v>386</v>
+        <v>699</v>
       </c>
       <c r="N13" s="7">
-        <v>383584</v>
+        <v>428882</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>383</v>
+        <v>330</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>384</v>
+        <v>331</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,49 +4873,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>505</v>
+        <v>745</v>
       </c>
       <c r="D14" s="7">
-        <v>581172</v>
+        <v>741988</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>387</v>
+        <v>334</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>136</v>
       </c>
       <c r="H14" s="7">
-        <v>829</v>
+        <v>1121</v>
       </c>
       <c r="I14" s="7">
-        <v>635748</v>
+        <v>847335</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
-        <v>1334</v>
+        <v>1866</v>
       </c>
       <c r="N14" s="7">
-        <v>1216920</v>
+        <v>1589323</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,10 +4924,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>674</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>726758</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5620,10 +4939,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>873746</v>
+        <v>1091374</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5635,10 +4954,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1720</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1600504</v>
+        <v>2018205</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5652,55 +4971,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>261</v>
+        <v>859</v>
       </c>
       <c r="D16" s="7">
-        <v>196177</v>
+        <v>613339</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>340</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>341</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>308</v>
       </c>
       <c r="H16" s="7">
-        <v>438</v>
+        <v>1388</v>
       </c>
       <c r="I16" s="7">
-        <v>273942</v>
+        <v>902641</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
-        <v>699</v>
+        <v>2247</v>
       </c>
       <c r="N16" s="7">
-        <v>470118</v>
+        <v>1515979</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,49 +5028,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>745</v>
+        <v>2515</v>
       </c>
       <c r="D17" s="7">
-        <v>769226</v>
+        <v>2844598</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>317</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>349</v>
       </c>
       <c r="H17" s="7">
-        <v>1121</v>
+        <v>3972</v>
       </c>
       <c r="I17" s="7">
-        <v>872361</v>
+        <v>2755392</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>352</v>
       </c>
       <c r="M17" s="7">
-        <v>1866</v>
+        <v>6487</v>
       </c>
       <c r="N17" s="7">
-        <v>1641588</v>
+        <v>5599990</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>408</v>
+        <v>353</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>410</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,10 +5079,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3374</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3457937</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5775,10 +5094,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5360</v>
       </c>
       <c r="I18" s="7">
-        <v>1146303</v>
+        <v>3658033</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5790,10 +5109,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8734</v>
       </c>
       <c r="N18" s="7">
-        <v>2111706</v>
+        <v>7115969</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5806,171 +5125,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>859</v>
-      </c>
-      <c r="D19" s="7">
-        <v>652050</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1388</v>
-      </c>
-      <c r="I19" s="7">
-        <v>879597</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2247</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1531647</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2515</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2731164</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3972</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2923621</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6487</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5654785</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3383214</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5360</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3803218</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8734</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7186432</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
